--- a/опт и Краснодар/2023/12,23/18,12,23 Сочи КИ/дв 18,12,23 счрсч от филиала и Химича.xlsx
+++ b/опт и Краснодар/2023/12,23/18,12,23 Сочи КИ/дв 18,12,23 счрсч от филиала и Химича.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\18,12,23 Сочи КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2023\12,23\18,12,23 Сочи КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98156D8A-0951-4279-98B4-396EE5BA9572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DD4D0B-C53F-464E-829F-078D87F5715A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$Y$83</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterate="1" iterateCount="1"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -410,10 +410,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -9706,7 +9710,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z4" sqref="Z4"/>
+      <selection pane="bottomLeft" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
